--- a/data/Контрольная работа № 1 (Общая экология для биоинженеров 2023)(1-10).xlsx
+++ b/data/Контрольная работа № 1 (Общая экология для биоинженеров 2023)(1-10).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="148">
   <si>
     <t>Почта</t>
   </si>
@@ -458,6 +458,12 @@
   </si>
   <si>
     <t>Заражение вольбахией может быть важным фактором, влияющим на половую структуру популяций некоторых членистоногих.;Эта бактерия поселяется в яйцах некоторых насекомых.;Эта бактерия может изменять ход дробления яйца у некоторых насекомых.;Заражение яиц некоторых насекомых вольбахией может приводить к формированию диплоидного яйца после первого митотического деления неоплодотворенного яйца.  ;</t>
+  </si>
+  <si>
+    <t>st090455@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Дарья Бехер</t>
   </si>
 </sst>
 </file>
@@ -465,11 +471,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d/yy\ h:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -481,7 +487,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,10 +516,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,24 +560,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,31 +594,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,19 +608,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,9 +623,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,20 +632,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,7 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +658,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,43 +694,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +730,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,31 +748,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,19 +796,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,19 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,6 +837,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -860,15 +884,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -879,16 +894,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,178 +924,170 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1147,7 +1154,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="180" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1331,8 +1338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BJ11" totalsRowShown="0">
-  <autoFilter ref="A1:BJ11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BJ12" totalsRowShown="0">
+  <autoFilter ref="A1:BJ12"/>
   <tableColumns count="62">
     <tableColumn id="4" name="Почта" dataDxfId="0"/>
     <tableColumn id="5" name="Имя" dataDxfId="1"/>
@@ -1659,10 +1666,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BJ11"/>
+  <dimension ref="A1:BJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3319,6 +3326,76 @@
       </c>
       <c r="BJ11" s="1"/>
     </row>
+    <row r="12" spans="1:62">
+      <c r="A12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="3">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
